--- a/mMonitoreoTeoricos/formatos/RAGASA.xlsx
+++ b/mMonitoreoTeoricos/formatos/RAGASA.xlsx
@@ -1,74 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gil Orosco\Desktop\CODIGOS REPORTES VENTAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juventino Reyna\Desktop\CODIGOS PARA VENTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDFF24E1-7E01-469F-A21B-F29BB6B6FBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CF9AC71C-34FF-47F3-8027-AA69CE329DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>7501039121436</t>
+    <t>CODIGO</t>
   </si>
   <si>
-    <t>7501039121610</t>
-  </si>
-  <si>
-    <t>7501039121740</t>
-  </si>
-  <si>
-    <t>7501039121993</t>
-  </si>
-  <si>
-    <t>7501039122013</t>
-  </si>
-  <si>
-    <t>7501039122020</t>
-  </si>
-  <si>
-    <t>7501039122099</t>
-  </si>
-  <si>
-    <t>7501039126745</t>
-  </si>
-  <si>
-    <t>7501039127285</t>
-  </si>
-  <si>
-    <t>7501039127292</t>
-  </si>
-  <si>
-    <t>7501039127308</t>
-  </si>
-  <si>
-    <t>7501039122228</t>
-  </si>
-  <si>
-    <t>7501039127452</t>
+    <t>7501039123737</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,12 +65,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -100,12 +94,53 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -135,7 +170,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -147,7 +182,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -164,9 +199,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -194,14 +229,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -229,6 +281,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A400D9-9F72-463F-B1B5-FEB3CCDB1E7E}">
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,71 +462,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>7501039121610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>7501039121740</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>7501039121993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>7501039122013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>7501039122020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7501039122105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7501039122228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7501039122600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7501039122716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7501039122792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7501039123027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7501039123140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>7501039126745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>7501039127285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>7501039127292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>7501039127308</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A9 A11:A14">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A9 A11:A18">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A16">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>